--- a/raspored/2.xlsx
+++ b/raspored/2.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbonic\Downloads\pitanja-main\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05A7E05-A604-473E-B132-2754E30FE04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="780" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
   <si>
     <t>VRSTA</t>
   </si>
@@ -53,12 +54,6 @@
     <t>OKRUGLI</t>
   </si>
   <si>
-    <t>RADIONICA</t>
-  </si>
-  <si>
-    <t>Voditelj</t>
-  </si>
-  <si>
     <t>KAVA</t>
   </si>
   <si>
@@ -71,84 +66,282 @@
     <t>OLYMPIA</t>
   </si>
   <si>
+    <t>Koktel dobrodošlice</t>
+  </si>
+  <si>
+    <t>predvorje hotela
+hotel lobby</t>
+  </si>
+  <si>
+    <t>Biljana Kurtović</t>
+  </si>
+  <si>
+    <t>Predavač</t>
+  </si>
+  <si>
+    <t>Radno predsjedništvo</t>
+  </si>
+  <si>
+    <t>Moderator</t>
+  </si>
+  <si>
+    <t>Panelisti</t>
+  </si>
+  <si>
+    <t>Dvorana</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>Adriano Friganović, Kata Ivanišević, Livia Puljak, Damir Važanić</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voditelj </t>
+  </si>
+  <si>
+    <t>13:30 – 13:45</t>
+  </si>
+  <si>
+    <t>13:45 – 14:15</t>
+  </si>
+  <si>
+    <t>14:15 – 14:30</t>
+  </si>
+  <si>
+    <t>14:30 – 14:45</t>
+  </si>
+  <si>
+    <t>14:45 – 15:00</t>
+  </si>
+  <si>
+    <t>15:00 – 15:15</t>
+  </si>
+  <si>
+    <t>15:15 – 15:30</t>
+  </si>
+  <si>
+    <t>15:30 – 16:15</t>
+  </si>
+  <si>
+    <t>16:15 – 16:30</t>
+  </si>
+  <si>
+    <t>16:30 – 16:45</t>
+  </si>
+  <si>
+    <t>16:45 – 17:00</t>
+  </si>
+  <si>
+    <t>17:00 – 17:15</t>
+  </si>
+  <si>
+    <t>17:15 – 17:30</t>
+  </si>
+  <si>
+    <t>17:30 – 17:45</t>
+  </si>
+  <si>
+    <t>17:50 – 18:35</t>
+  </si>
+  <si>
+    <t>Svečano otvaranje</t>
+  </si>
+  <si>
+    <t>Uvodno predavanje</t>
+  </si>
+  <si>
+    <t>Specialization in emergency nursing in Iceland</t>
+  </si>
+  <si>
+    <t>Specijalističko sestrinstvo - budućnost europske zdravstvene zaštite</t>
+  </si>
+  <si>
+    <t>Uloga učinkovite komunikacije i timskog rada u hitnoj medicini</t>
+  </si>
+  <si>
+    <t>Krizno komuniciranje</t>
+  </si>
+  <si>
+    <t>Vrste istraživanja i objavljivanje rezultata diplomskih i završnih radova zdravstvenih studija u Hrvatskoj: retrospektivno kohortno i presječno istraživanje</t>
+  </si>
+  <si>
+    <t>Medicinska dokumentacija u hitnoj medicini – dužnost i zaštita</t>
+  </si>
+  <si>
+    <t>Porod u izvanbolničkim uvjetima - što je važno?</t>
+  </si>
+  <si>
+    <t>Prepoznavanje životne ugroženosti djeteta</t>
+  </si>
+  <si>
+    <t>Trauma - vječna inspiracija hitne medicine</t>
+  </si>
+  <si>
+    <t>Zbrinjavanje traumatološkog bolesnika u hitnom prijemu</t>
+  </si>
+  <si>
+    <t>OKRUGLI STOL – Povezanost znanosti i prakse u sestrinstvu</t>
+  </si>
+  <si>
+    <t>Iznenađenje večeri – Dvorana OLYMPIA</t>
+  </si>
+  <si>
+    <t>Opening ceremony</t>
+  </si>
+  <si>
+    <t>Introductory lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialist nursing - the future of European healthcare
+</t>
+  </si>
+  <si>
+    <t>Administration of medication by specialist nurses in emergency medicine</t>
+  </si>
+  <si>
+    <t>The role of effective communication and teamwork in emergency medicine</t>
+  </si>
+  <si>
+    <t>Crisis communication</t>
+  </si>
+  <si>
+    <t>Welcome cocktail</t>
+  </si>
+  <si>
+    <t>Types and publication outcomes of bachelor’s and master’s theses of health sciences studies in Croatia: retrospective cohort and cross-sectional study</t>
+  </si>
+  <si>
+    <t>Medical documentation in emergency medicine – responsibility and confidentiality</t>
+  </si>
+  <si>
+    <t>Emergency childbirth outside the hospital setting - what is important?</t>
+  </si>
+  <si>
+    <t>Detection of life-threatening conditions in children</t>
+  </si>
+  <si>
+    <t>Trauma - the eternal inspiration of emergency medicine</t>
+  </si>
+  <si>
+    <t>Treatment of trauma patients in the emergency department</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCUSSION PANEL – Linking science and practice in nursing 
+</t>
+  </si>
+  <si>
+    <t>The surprise of the evening – OLYMPIA Hall</t>
+  </si>
+  <si>
+    <t>Damir Važanić</t>
+  </si>
+  <si>
+    <t>Thordis Thorsteinsdottir</t>
+  </si>
+  <si>
+    <t>Adriano Friganović</t>
+  </si>
+  <si>
+    <t>Vesna Trut</t>
+  </si>
+  <si>
+    <t>Mario Harapin</t>
+  </si>
+  <si>
+    <t>Livia Puljak</t>
+  </si>
+  <si>
+    <t>Ingrid Bošan-Kilibarda</t>
+  </si>
+  <si>
+    <t>Mislav Herman</t>
+  </si>
+  <si>
+    <t>Milivoj Novak</t>
+  </si>
+  <si>
+    <t>Višnja Nesek Adam</t>
+  </si>
+  <si>
+    <t>Slaven Babić</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faculty of Nursing and Midwifery, School of Health Sciences, University of Iceland
+Absract: Nurses in emergency care are constantly faced with new challenges, which recently have included, among other things, the aging population, migration and cultural diversity, drug overdoses and violence. Furthermore, crowding is a challenge as the lack of beds in hospitals results in longer stays for admitted patients at emergency departments (EDs) in the care of emergency nurses. Iceland has a 50-years history of nursing as a university education and a 4-year Bachelor of Science degree. Following a Master of Science degree nurses can undertake a 2-year training program to become Clinical Nurse Specialists (CNS). In 2019, the ED with the Professional Council in Emergency Nursing at our university hospital, Landspitali, recognized the need to offer a diploma program in emergency nursing at a master's level after a 10-years pause of offering such a program at the Faculty of Nursing. The diploma program was in part based on a formal competency program in clinical emergency nursing that was developed and implemented at the general ED of Landspitali from 2013-17 under the supervision of CNSs and the Professional Council. Continuous education and well-defined competences have affected nurses’ retention, professional goals, and the nursing quality at our ED. On the other hand, there is a need for specialized roles and more nurses to continue to a master's program to become CNS in emergency nursing. CNS are vital to train and teach nurses to become emergency nurses. 
+Key words: Emergency Nursing, Clinical Nurse Specialists (CNS), Continuous Education
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sažetak: 
-Od 2023. godine započelo je provođenje dugo pripremanog specijalističkog usavršavanja prvostupnika sestrinstva u djelatnosti hitne medicine. Pravilnikom o izmjeni Pravilnika o specijalističkom usavršavanju prvostupnika sestrinstva (NN 139/2022) nadopunjene su i jasno definirane kompetencije koje specijalizanti stječu završetkom specijalizacije. U popisu kompetencija vrlo važno mjesto ima samostalna primjena lijekova, što predstavlja novost u sustavu hitne medicine u Hrvatskoj i veliki korak naprijed u samostalnom i učinkovitom djelovanju medicinskih sestara i medicinskih tehničara specijalista u djelatnosti hitne medicine, tijekom zbrinjavanja akutno ugroženih bolesnika. Pravilnik precizno navodi lijekove  čija je primjena u jasno određenim stanjima u okviru kompetencija specijalista. Ovime se i Hrvatska pridružuje zemljama poput Engleske i Irske čiji sustav hitne medicine već duži niz godina uključuje i adekvatno osposobljene medicinske sestre/tehničare različitih razina edukacije, izvježbanosti i kompetencija (kao što su npr. EMT od engl. emergency medical technican, paramedic, advanced paramedic) koji uz različite postupke u zbrinjavanju hitnog bolesnika imaju i pravo primjene lijekova sa ograničenog i jasno definiranog popisa. Gore navedeni Pravilnik u popisu kompetencija obuhvaća primjenu 16 različitih lijekova te primjenu kisika. Lijekovi koji se koriste u kardiopulmonalnoj reanimaciji su adrenalin i amiodaron. Primjenjuju se prema smjernicama ERC-a (European Reususcitation Council). Adrenalin se primjenjuje i u anafilaktičkom šoku. Za hipoglikemiju indicirana je primjena glukoze kao i glukagona. Nitroglicerin je potrebno primijeniti kod epistakse uzrokovane visokim tlakom i kod boli u prsištu. Diazepam klizmu primjenjujemo za febrilne konvulzije kod djece, a intravenska primjena diazepama je indicirana u epileptičkom statusu. Acetilsalicilna kiselina djeluje kao analgetik, antipiretik, nesteroidni je antireumatik, a ima i indikaciju za primjenu kod bolesnika sa akutnim infarktom miokarda. Lidokain 2% potrebno je dati kod postavljanja intraosealnog puta ukoliko je osoba pri svijesti. Salbutamol koristimo u zbrinjavanju bolesnika sa astmatskim napadom. Atropin shodno smjernicama ERC-a ima svoje mjesto isključivo u terapiji bradikardije. Anatagonist opioida nalokson koristimo u liječenju bolesnika koji su akutno intoksicirani opioidima.  U analgetsku terapiju spadaju morfij i tramadol, a njihovo korištenje je utemeljeno na smjernicama za liječenje boli Hrvatskog zavoda za hitnu medicinu (HZHM). Furosemid je indicirano primijeniti u liječenju bolesnika sa plućnim edemom. Fiziološka otopina (NaCl 0.9%) daje se bolesnicima kojima je potrebna nadoknada tekućine. Samostalno donošenje ispravne odluke o primjeni lijeka kao osnovni i neizostavan preduvjet ima provedenu kvalitetnu edukaciju i posjedovanje zadovoljavajuće razine znanja. Medicinska sestra/tehničar specijalist u djelatnosti hitne medicine mora znati indikacije i kontraindikacije za davanje lijeka, način primjene i točnu dozu za svaki od lijekova čija primjena spada u njihove kompetencije. Kao jedan od praktičnih načina prevencije moguće pogreške prije same primjene lijeka potrebno je provjeriti da li je ispunjeno svih sedam uvjeta, tkzv „sedam pravih“ (od engl. „7 rights“): pravi pacijent, pravi lijek, prava doza, pravo vrijeme, pravi put primjene, pravi razlog, prava dokumentacija.
+Od 2023. godine započelo je provođenje dugo pripremanog specijalističkog usavršavanja prvostupnika sestrinstva u djelatnosti hitne medicine. Pravilnikom o izmjeni Pravilnika o specijalističkom usavršavanju prvostupnika sestrinstva (NN 139/2022) nadopunjene su i jasno definirane kompetencije koje specijalizanti stječu završetkom specijalizacije. U popisu kompetencija vrlo važno mjesto ima samostalna primjena lijekova, što predstavlja novost u sustavu hitne medicine u Hrvatskoj i veliki korak naprijed u samostalnom i učinkovitom djelovanju medicinskih sestara i medicinskih tehničara specijalista u djelatnosti hitne medicine, tijekom zbrinjavanja akutno ugroženih bolesnika. Pravilnik precizno navodi lijekove čija je primjena u jasno određenim stanjima u okviru kompetencija specijalista. Ovime se i Hrvatska pridružuje zemljama poput Engleske i Irske čiji sustav hitne medicine već duži niz godina uključuje i adekvatno osposobljene medicinske sestre/tehničare različitih razina edukacije, izvježbanosti i kompetencija (kao što su npr. EMT od engl. emergency medical technican, paramedic, advanced paramedic) koji uz različite postupke u zbrinjavanju hitnog bolesnika imaju i pravo primjene lijekova sa ograničenog i jasno definiranog popisa. Gore navedeni Pravilnik u popisu kompetencija obuhvaća primjenu 16 različitih lijekova te primjenu kisika. Lijekovi koji se koriste u kardiopulmonalnoj reanimaciji su adrenalin i amiodaron. Primjenjuju se prema smjernicama ERC-a (European Reususcitation Council). Adrenalin se primjenjuje i u anafilaktičkom šoku. Za hipoglikemiju indicirana je primjena glukoze kao i glukagona. Nitroglicerin je potrebno primijeniti kod epistakse uzrokovane visokim tlakom i kod boli u prsištu. Diazepam klizmu primjenjujemo za febrilne konvulzije kod djece, a intravenska primjena diazepama je indicirana u epileptičkom statusu. Acetilsalicilna kiselina djeluje kao analgetik, antipiretik, nesteroidni je antireumatik, a ima i indikaciju za primjenu kod bolesnika sa akutnim infarktom miokarda. Lidokain 2% potrebno je dati kod postavljanja intraosealnog puta ukoliko je osoba pri svijesti. Salbutamol koristimo u zbrinjavanju bolesnika sa astmatskim napadom. Atropin shodno smjernicama ERC-a ima svoje mjesto isključivo u terapiji bradikardije. Anatagonist opioida nalokson koristimo u liječenju bolesnika koji su akutno intoksicirani opioidima. U analgetsku terapiju spadaju morfij i tramadol, a njihovo korištenje je utemeljeno na smjernicama za liječenje boli Hrvatskog zavoda za hitnu medicinu (HZHM). Furosemid je indicirano primijeniti u liječenju bolesnika sa plućnim edemom. Fiziološka otopina (NaCl 0.9%) daje se bolesnicima kojima je potrebna nadoknada tekućine. Samostalno donošenje ispravne odluke o primjeni lijeka kao osnovni i neizostavan preduvjet ima provedenu kvalitetnu edukaciju i posjedovanje zadovoljavajuće razine znanja. Medicinska sestra/tehničar specijalist u djelatnosti hitne medicine mora znati indikacije i kontraindikacije za davanje lijeka, način primjene i točnu dozu za svaki od lijekova čija primjena spada u njihove kompetencije. Kao jedan od praktičnih načina prevencije moguće pogreške prije same primjene lijeka potrebno je provjeriti da li je ispunjeno svih sedam uvjeta, tkzv „sedam pravih“ (od engl. „7 rights“): pravi pacijent, pravi lijek, prava doza, pravo vrijeme, pravi put primjene, pravi razlog, prava dokumentacija.
 Ključne riječi: lijekovi, medicinske sestre/tehničari, hitna medicina
 </t>
   </si>
   <si>
-    <t>16:00 - 16:15</t>
-  </si>
-  <si>
-    <t>14:45 - 15:00</t>
-  </si>
-  <si>
-    <t>ARTEMIDA</t>
-  </si>
-  <si>
-    <t>Sponzor</t>
-  </si>
-  <si>
-    <t>Koktel dobrodošlice</t>
-  </si>
-  <si>
-    <t>16:15 - 16:45</t>
-  </si>
-  <si>
-    <t>predvorje hotela
-hotel lobby</t>
-  </si>
-  <si>
-    <t>15:00 - 15:20</t>
-  </si>
-  <si>
-    <t>OKRUGLI STOL – Povezanost znanosti i prakse  u sestrinstvu</t>
-  </si>
-  <si>
-    <t>Biljana Kurtović</t>
-  </si>
-  <si>
-    <t>16:45 - 17:00</t>
-  </si>
-  <si>
-    <t>Predavač</t>
-  </si>
-  <si>
-    <t>Radno predsjedništvo</t>
-  </si>
-  <si>
-    <t>Moderator</t>
-  </si>
-  <si>
-    <t>Panelisti</t>
-  </si>
-  <si>
-    <t>Dvorana</t>
-  </si>
-  <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t>Adriano Friganović, Kata Ivanišević, ;
-Livia Puljak, Damir Važanić</t>
-  </si>
-  <si>
-    <t>RADIONICA sponzora: ;Tehnomedika: CPAP slobodnog protoka - klinički aspekti i praktična primjena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sažetak: 
-Od 2023. godine započelo je provođenje dugo pripremanog specijalističkog usavršavanja prvostupnika sestrinstva u djelatnosti hitne medicine. Pravilnikom o izmjeni Pravilnika o specijalističkom usavršavanju prvostupnika sestrinstva (NN 139/2022) nadopunjene su i jasno definirane kompetencije koje specijalizanti stječu završetkom specijalizacije. U popisu kompetencija vrlo važno mjesto ima samostalna primjena lijekova, što predstavlja novost u sustavu hitne medicine u Hrvatskoj i veliki korak naprijed u samostalnom i učinkovitom djelovanju medicinskih sestara i medicinskih tehničara specijalista u djelatnosti hitne medicine, tijekom zbrinjavanja akutno ugroženih bolesnika. Pravilnik precizno navodi lijekove  čija je primjena u jasno određenim stanjima u okviru kompetencija specijalista. Ovime se i Hrvatska pridružuje zemljama poput Engleske i Irske čiji sustav hitne medicine već duži niz godina uključuje i adekvatno osposobljene medicinske sestre/tehničare različitih razina edukacije, izvježbanosti i kompetencija (kao što su npr. EMT od engl. emergency medical technican, paramedic, advanced paramedic) koji uz različite postupke u zbrinjavanju hitnog bolesnika imaju i pravo primjene lijekova sa ograničenog i jasno definiranog popisa. Gore navedeni Pravilnik u popisu kompetencija obuhvaća primjenu 16 različitih lijekova te primjenu kisika. Lijekovi koji se koriste u kardiopulmonalnoj reanimaciji su adrenalin i amiodaron. 
-Primjenjuju se prema smjernicama ERC-a (European Reususcitation Council). Adrenalin se primjenjuje i u anafilaktičkom šoku. Za hipoglikemiju indicirana je primjena glukoze kao i glukagona. Nitroglicerin je potrebno primijeniti kod epistakse uzrokovane visokim tlakom i kod boli u prsištu. Diazepam klizmu primjenjujemo za febrilne konvulzije kod djece, a intravenska primjena diazepama je indicirana u epileptičkom statusu. Acetilsalicilna kiselina djeluje kao analgetik, antipiretik, nesteroidni je antireumatik, a ima i indikaciju za primjenu kod bolesnika sa akutnim infarktom miokarda. Lidokain 2% potrebno je dati kod postavljanja intraosealnog puta ukoliko je osoba pri svijesti. Salbutamol koristimo u zbrinjavanju bolesnika sa astmatskim napadom. Atropin shodno smjernicama ERC-a ima svoje mjesto isključivo u terapiji bradikardije. Anatagonist opioida nalokson koristimo u liječenju bolesnika koji su akutno intoksicirani opioidima.  U analgetsku terapiju spadaju morfij i tramadol, a njihovo korištenje je utemeljeno na smjernicama za liječenje boli Hrvatskog zavoda za hitnu medicinu (HZHM). Furosemid je indicirano primijeniti u liječenju bolesnika sa plućnim edemom. 
-Fiziološka otopina (NaCl 0.9%) daje se bolesnicima kojima je potrebna nadoknada tekućine. Samostalno donošenje ispravne odluke o primjeni lijeka kao osnovni i neizostavan preduvjet ima provedenu kvalitetnu edukaciju i posjedovanje zadovoljavajuće razine znanja. Medicinska sestra/tehničar specijalist u djelatnosti hitne medicine mora znati indikacije i kontraindikacije za davanje lijeka, način primjene i točnu dozu za svaki od lijekova čija primjena spada u njihove kompetencije. Kao jedan od praktičnih načina prevencije moguće pogreške prije same primjene lijeka potrebno je provjeriti da li je ispunjeno svih sedam uvjeta, tkzv „sedam pravih“ (od engl. „7 rights“): pravi pacijent, pravi lijek, prava doza, pravo vrijeme, pravi put primjene, pravi razlog, prava dokumentacija.
-Ključne riječi: lijekovi, medicinske sestre/tehničari, hitna medicina
+    <t xml:space="preserve">Sažetak. 
+Jednako kao i u drugim zahtjevnim radnim okruženjima, ljudski su čimbenici od ključne važnosti za postizanje visoke razine radne učinkovitosti tijekom hitnog medicinskog zbrinjavanja. Znanja, vještine i stavovi djelatnika hitne medicine određuju njihovu komunikaciju, organizaciju rada, način donošenja odluka i rješavanje sukoba. Zbog složenosti postupaka zbrinjavanja hitnih bolesnika čak se i kod visoko kvalificiranih, iskusnih i visoko motiviranih djelatnika događaju pogreške. Također, poznato je da se upravo neadekvatna komunikacija u hitnom medicinskom zbrinjavanju povezuje s ugrožavanjem dobrobiti pacijenata i većom pojavom profesionalnih pogrešaka. Stoga se brza i učinkovita komunikacija smatra jednim od najvažnijih preduvjeta osiguravanja odgovarajuće medicinske skrbi i sigurnosti pacijenata. Za kvalitetu svake medicinske intervencije nije važna samo učinkovita komunikacija medicinskog osoblja i pacijenta već se posljednjih desetljeća sve više naglašava i važnost komunikacije koja se odvija unutar i između medicinskih timova. Istraživanja i praksa potvrđuju postojanje brojnih komunikacijskih izazova i rizika u hitnoj medicini koji većinom proizlaze iz specifičnih zahtjeva i uvjeta rada. Opravdano je pretpostaviti kako njihovo razumijevanje može pridonijeti boljoj učinkovitosti i smanjivanju pojave profesionalnih pogrešaka koje ozbiljno narušavaju ugled struke. U radu se objašnjava uloga komunikacije u nastanku izvanrednih događaja tijekom hitnog medicinskog zbrinjavanja i propituju mogućnosti poboljšanja komunikacijske prakse u djelatnostima hitne medicine. 
+Ključne riječi: djelatnici hitne medicine, komunikacija, timski rad, prevencija profesionalnih pogrešaka
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sažetak. 
+Uvod: Izradom završnih i diplomskih radova studenti objedinjuju stečena znanja i vještine tijekom obrazovanja. Objavljivanje rezultata završnih i diplomskih radova u znanstvenim časopisima ima niz prednosti za studenta i znanstvenu zajednicu. Nije poznato u kojoj mjeri studenti zdravstvenih studija u Hrvatskoj provode originalna istraživanja u okviru završnih radova. Također nije poznato u kojoj mjeri se temeljem završnih i diplomskih radova zdravstvenih studija u Hrvatskoj objavljuju članci u znanstvenim časopisima.
+Cilj: Cilj ovog istraživanja bio je analizirati vrste istraživanja i objavljivanje rezultata u časopisu među diplomskim i završnim radovima koje su obranili studenti zdravstvenih studija u Hrvatskoj.
+Metode: U analizu su uključeni diplomski i završni radovi studenata zdravstvenih studija dostupni u Nacionalnom repozitoriju diplomskih i završnih radova (ZIR) Nacionalne i sveučilišne knjižnice u Zagrebu obranjeni u razdoblju do 14. svibnja 2022. godine u Hrvatskoj. Radovi su preuzeti i analizirani. Mentori radova uključenih u analizu su anketirani putem e-poruke o objavljivanju sadržaja u znanstvene časopise. Osim anketiranjem mentora, korištena su tri mrežna izvora (PubMed, Google Scholar i Google) kako bi se pokušali naći članci objavljeni u časopisima. 
+Rezultati: Analizirano je 9861 disertacija, uključujući 7979 (81%) završnih radova i 1882 (19%) diplomskih radova. Na izvornom istraživanju temeljilo se 66% diplomskih radova i 21% završnih radova. Anketiranju se odazvalo 3910 (40%) mentora. Prema rezultatima tih anketa, rezultati 176/3910 (4,5%) disertacija objavljeni su u znanstvenim časopisima. Dodatnim pretraživanjem mrežnih izvora utvrđeno je kako je od ukupnog broja disertacija 290 (2,9%) objavljeno u znanstvenom časopisu, a od toga 238 (82%) u hrvatskim časopisima. 
+Zaključak: Dvije trećine diplomskih i završnih radova zdravstvenih studija u Hrvatskoj ne temelji se na izvornom istraživanju. Rezultati veoma malog broja disertacija objavljeni su u znanstvenom časopisu. Ustanove bi trebale poticati mentore i studente na provedbu originalnih istraživanja i njihovu objavu s ciljem razvoja zdravstvenih znanosti.
+Ključne riječi: zdravstveni studiji, znanost, visoko obrazovanje, disertacije, objavljivanje
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sažetak. 
+Medicinska dokumentacija je skup medicinskih zapisa i dokumenata nastalih u procesu pružanja zdravstvene zaštite kod ovlaštenih pružatelja zdravstvene zaštite koji sadrže podatke o zdravstvenom stanju i tijeku liječenja pacijenata (obuhvaća liječničku, sestrinsku i drugu dokumentaciju), a o kojima se vodi evidencija u području zdravstvene zaštite.
+Medicinska dokumentacija osigurava praćenje zdravstvenog stanja pacijenta; tijek pacijentove bolesti i liječenja; osigurava postavljanje dijagnoze i odabir načina liječenja; osigurava komunikaciju između liječnika i pacijenta, liječnika međusobno te između ostalih zdravstvenih radnika; osigurava podatke za zdravstveno-statistička izvješća; baza je podataka za znanstvena istraživanja; dokazuje slijed provedenih postupaka; osigurava praćenje kvalitete rada (pokazatelji kvalitete); sadrži upute dane u svrhu ostvarivanja pacijentovih prava na zdravstvenu zaštitu; osigurava mogućnost zaštite u slučaju sudskog postupka/tužbe pacijenta.
+Savjesno vođenje zapisa u medicinskoj dokumentaciji opća je (javnopravna) dužnost liječnika, odnosno zdravstvenih radnika i zdravstvenih ustanova. Prema čl. 23. Zakona o liječništvu, liječnik je dužan voditi točnu, iscrpnu i datiranu medicinsku dokumentaciju u skladu s propisima o evidencijama na području zdravstva, koja u svakom trenutku može pružiti dostatne podatke o zdravstvenom stanju pacijenta i njegovu liječenju. Vođenje sestrinske dokumentacije, jedna je od dužnosti medicinske sestre-medicinskog tehničara prema čl. 16. Zakona o sestrinstvu, kojom se evidentiraju svi provedeni postupci tijekom 24 sata. U hitnoj medicini podzakonskim propisima standardizirani su obrasci medicinske dokumentacije na kojima se vodi evidencija o radu timova izvanbolničke hitne medicine kao i radu Objedinjenog hitnog bolničkog prijama za medicinske sestre-medicinske tehničare. 
+Iako se u posljednje vrijeme širi praksa propitivanja profesionalnog rada zdravstvenih radnika, većina liječnika i medicinskih sestara-medicinskih tehničara tek djelomično uviđa značaj dokumentiranja medicinskih podataka. Posebice je to važno u hitnoj medicini jer se ona pretežito bavi zbrinjavanjem životno ugrožavajućih akutnih stanja u uvjetima kada su vrijeme za donošenje odluka kao i mogućnosti detaljnije obrade pacijenta ograničeni. Brojne su medicinske okolnosti koje u pravnim postupcima mogu postati sporne. Njihovo utvrđivanje naziva se medicinsko vještačenje koje se, većinom, izrađuje temeljem medicinske dokumentacije. Zato je važno da ona bude vjerodostojna i ispravno vođena jer prema stajalištu sudske prakse, u pravilu se drži da je ono što je upisano u medicinskoj dokumentaciji istinito, odnosno stvarno i učinjeno, a da se ono o čemu nema pisanog traga nije niti dogodilo.
+Ključne riječi: medicinska dokumentacija, hitna medicina, dužnost, zaštita
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sažetak. 
+Porođaj u izvanbolničkim uvjetima nije čest, ali se događa. Najčešći razlog zbog kojeg majka ne stiže na vrijeme u najbliže rodilište je tzv. precipitirani porođaj u kojem je interval od početka trudova do porođaja djeteta manji od tri sata. Precipitirani porođaj najčešće je posljedica vrlo niske rezistencije porođajnog kanala, izrazito snažnih trudova, izostanka osjeta trudova, kao i kombinacije navedenih čimbenika. Vrlo često i različiti nepredvidljivi životni događaji sprječavaju majku da pravovremeno stigne do bolnice. Ne smijemo zaboraviti kako i prijevremeni trudovi mogu rezultirati vrlo brzim prijevremenim rađanjem. Dijete se u izvanbolničkim uvjetima najčešće rađa u autu, kolima hitne medicinske pomoći ili kod kuće, ali na isti način kao što bi se rodilo i u bolnici. Najvažniji element u postupanju kod porođaja u izvanbolničkim uvjetima jest ne paničariti. Ne smijemo zaboraviti kako je porođaj fiziološki događaj u kojem je majka ta koja rađa, a naša uloga je samo da se pomogne njoj i djetetu. Čak i djeca rođena bez ikakve pomoći su najčešće urednog stanja jer u većini slučajeva porođaj teče bez ikakvih komplikacija. Za vođenje porođaja je potrebno određeno medicinsko znanje, zbog čega se nezdravstvenom osoblju, odnosno medicinskim laicima, ne preporuča prevelika angažiranost. Porođaj se sastoji od 4 porođajna doba, odnosno 1. porođajnog doba ili doba otvaranja, 2. porođajnog doba ili doba izgona, 3. porođajnog doba ili doba porođaja posteljice i 4. porođajnog doba ili doba rane hemostaze ili oporavka. 1. i 2. porođajno doba najčešće se u ovakvim slučajevima odvijaju u izvanbolničkim uvjetima, dok se 3. i 4. porođajno doba odvijaju u bolnici. Većina dostupne literature koja se bavi tematikom izvanbolničkog porođaja nažalost se previše usredotočuje na moguće opstetričke komplikacije koje nisu učestale, zanemarujući važne informacije o normalnom porođaju. U okolnostima neočekivanog porođaja prvo je potrebno potražiti pomoć, najbolje telefonom. Nazovite bilo koje rodilište i zatražite stručnu osobu. Objasnite svoju situaciju i dobit ćete primarne upute i podršku. Potrebno je uzeti kratku anamnezu i odrediti vodeću čest. Najčešće je to glavica, ali u rijetkim slučajevima može se raditi i o stavu zatkom. Posebno je opasno ako se pregledom ne palpira jasno vodeća čest ili se palpira rame, kada se vjerojatno radi o poprečnom položaju fetusa koji iziskuje što hitniji transfer u najbližu bolničku ustanovu, u kojoj će se porođaj dovršiti carskim rezom. Od pribora koji je potreban za vođenje porođaja u izvanbolničkim uvjetima navodim jastuke, čiste plahte, čiste ručnike (ne moraju biti sterilni), sterilne gumene rukavice, posudu ili vrećicu za posteljicu, čiste škare, čiste poveske za pupkovinu ili vrpce od tkanine, idealno plastične kvačice, kipuću vodu za sterilizaciju vrpci i škara u nedostatku sterilnih, dječji pokrivači i dječja kapa (novorođenče gubi većinu tjelesne topline preko glave). Nakon porođaja djeteta s presijecanjem pupčane vrpce ne treba žuriti i ono je optimalno 30-60 sekundi nakon porođaja. Porođaj posteljice tipično nastupa unutar 30-60 minuta nakon porođaja (3. porođajno doba). Površinske laceracije rodnice i međice ne zahtijevaju kirurško zbrinjavanjem, dok opsežnije razdore s obilnijim krvarenjem treba tamponirati do transporta u najbliže rodilište. 
+Ključne riječi: izvanbolnički porođaj, hitni transport, postporođajna skrb
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sažetak. 
+Zastoj srca i disanja moguć je konačni ishod mnogih bolesti i stanja koja ugrožavaju život djeteta. Zbog lošeg ishoda oživljavanja djece (uspjeh je malen, a u preživjelih su česta neurološka oštećenja), pravovodobno prepoznavanje životne ugroženosti temelj je postupnika oživljavanja djeteta. U današnje, visokotehnologizirano vrijeme sveprisutna je želja za strojem ili aparatom koji će nadomjestiti čovjeka i njegovo znanje, iskustvo ili vještine. Nažalost, takav uređaj ne postoji. Uzroci zastoja srca u djece razlikuju se od onih u odraslih. U djece ono rijetko primarno zakazuje. Najčešće je posrijedi postupno zatajenje respiracijske i cirkulacijske funkcije. To je razlog da u djece osobito valja voditi računa o ranom prepoznavanju znakova zatajenja disanja i cirkulacije, jer o tome ovisi pravodobno liječenje. Srčani zastoj najčešće se javlja u djece na oba kraja pedijatrijskog dobnog spektra, u novorođenčadi i dojenčadi, te u adolescenata. 
+Brza klinička procjena životno ugroženog djeteta omogućit će pravodobni početak postupaka oživljavanja. Riječ „brza“ u ovom slučaju znači da ona ne smije trajati dulje od 1 minute. 
+Ni u kom slučaju klinički pregled ne smije odgoditi postupak oživljavanja. Naime, ono samo ako je pravodobno može biti uspješno. Nakon što se procijeni i po potrebi provedu postupci zbrinjavanja dišnog puta (A), disanja (B) i cirkulacije (C), valja nastaviti s liječenjem osnovne bolesti ili stanja. Tijekom daljnjeg postupka treba učestalo ponovno procjenjivati slijed A, B i C, kako bi se na vrijeme otkrila moguća pogoršanja i ponavljali postupci oživljavanja tamo gdje se pogoršanje otkrije.
+Ključne riječi: zastoj srca, oživljavanje djece, hitna klinička procjena
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sažetak. 
+Politrauma predstavlja izazovan medicinski problem koji obuhvaća ozljede više tjelesnih područja ili organa istovremeno. Takve ozljede često su posljedica ozbiljnih nesreća ili traumatskih događaja i vječna su inspiracija hitne medicine. Zbrinjavanje navedenih bolesnika je složeno i zahtijeva multidisciplinarni pristup koji obuhvaća različite medicinske discipline, uključujući hitnu medicinu, kirurgiju, anesteziologiju, ortopediju i druge specijalizacije. Vječna inspiracija koju politrauma pruža hitnoj medicini leži u njenom izazovnom karakteru i stalnoj potrebi za unaprjeđenjem medicinske skrbi. Svaki slučaj politraumatiziranog bolesnika predstavlja jedinstvenu kombinaciju ozljeda i kliničkih izazova, što potiče istraživanje, razvoj inovativnih tehnika i poboljšanje postojećih protokola.
+Iako je politrauma teška i izazovna, ona također podsjeća medicinske djelatnike na vrijednost brze i odlučne reakcije te empatičnog pristupa u najkritičnijim trenucima.To je inspiracija koja potiče medicinske djelatnike da budu neprestano posvećeni poboljšanju medicinske skrbi kako bi se politraumatiziranim bolesnicima osigurali optimalni izgledi za preživljavanje i oporavak, čineći hitnu medicinu poljem neprestanog napretka i razvoja.
+Ključne riječi: politrauma, hitna medicina, multidisciplinarni pristup
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sažetak. 
+Svaka osoba s ozljedom lokomotornog sustava predstavlja traumatološkog pacijenta koji se na hitnom prijemu trijažira te se prema stupnju hitnosti provodi klinički pregled, dijagnostika i liječenje.
+Ozljede predstavljaju jedan od vodećih javnozdravstvenih problema u Hrvatskoj, ali i svijetu. Skupina bolesnika, čija prognoza i uspjeh liječenja ovisi o ranom i pravilnom zbrinjavanju i liječenju, jesu politraumatizirani pacijenti. Iako za politraumu postoje deseci definicija, najviše se koristi ona iz 1984. koja navodi da politrauma predstavlja istovremenu tešku ozljedu najmanje dvije tjelesne regije pri čemu jedna od tih ozljeda ili kombinacija više njih ugrožava život pacijenta. Zbrinjavanje pacijenta u hitnom prijemu je direktni nastavak vanbolničkog zbrinjavanja čija brzina i uspješnost usmjerava daljni tijek svih patofizioloških promjena kao posljedice primarne ozljede. Nepoželjni slijed događaja u vidu smrtnosti predstavlja krucijalni problem, budući da se ista događa kroz tri vremenska perioda – unutar nekoliko sekundi/minuta kao direktna posljedica ozljede, unutar nekoliko minuta/sati kao posljedica krvarenja te unutar nekoliko dana/tjedana kao sekundarna posljedica primarne ozljede.
+Pridržavajući se prihvaćenih smjernica (ATLS, ETC), zbrinjavanje politraumatiziranog pacijenta provodi se prema ABCDE protokolu uz inicijalnu procjenu životno ugrožavajućih stanja (opstrukcija disanja, masivno vanjsko krvarenje, traumatski kardijalni arest). ABCDE protokol i njegova kontinuirana reevaluacija vrši se kroz nekoliko faza pregleda koje uključuju brzi orijentacijski pregled (primary survey), liječenje zapaženih odstupanja (resuscitacion), prošireni ili kompletni pregled (secondary survey) i daljnje liječenje prisutnih odstupanja (resuscitation – definitive care). Iako uzimanje anamneze prema svim smjernicama zauzima jednako važni dio uz pregled i liječenje, isto u stvarnosti nije potpuno ostvareno. Primarno je važno uočiti i liječiti po život opasna stanja gdje pri tome sama anamneza nije neophodna već iskustvo i znanje da se pravilno interpretira mehanizam nastanka ozljede, klinički pregled, izmjereni parametri i promjene po poduzetim postupcima.
+Kod zbrinjavanja traumatološkog bolesnika u hitnom prijemu neophodno je zajedničko djelovanje vanbolničkog i bolničkog postupanja koje obuhvaća pravilnu i ranu medicinska pomoć, pravovremenu i ispravnu komunikaciju, transport u najbližu, ali adekvatnu ustanovu te ciljanu dijagnostika i liječenje.
+Ključne riječi: politrauma, ABCDE protokol, izvanbolničko zbrinjavanje
+</t>
+  </si>
+  <si>
+    <t>Ingrid Bošan-Kilibarda, Damir Važanić</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,23 +354,35 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Google Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -185,16 +390,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -510,185 +743,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26906DA3-101A-4D76-A8F8-A64B03734454}">
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="19.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" customWidth="1"/>
-    <col min="11" max="11" width="149.42578125" customWidth="1"/>
+    <col min="3" max="4" width="38" style="3"/>
+    <col min="11" max="11" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="306" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="57" customHeight="1" thickBot="1">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6"/>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="344.25" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="89.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="J10" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="K10" s="5"/>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="5"/>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="5"/>
+    </row>
+    <row r="12" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="H18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="63.75" customHeight="1" thickBot="1">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="J19" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/raspored/2.xlsx
+++ b/raspored/2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbonic\Downloads\HSDHM-main\raspored\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05A7E05-A604-473E-B132-2754E30FE04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
   <si>
     <t>VRSTA</t>
   </si>
@@ -336,11 +335,14 @@
   <si>
     <t>Ingrid Bošan-Kilibarda, Damir Važanić</t>
   </si>
+  <si>
+    <t>Drugi dan Specialization in emergency nursing in Iceland</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -743,11 +745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26906DA3-101A-4D76-A8F8-A64B03734454}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1"/>
@@ -857,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>41</v>
